--- a/NSGA-II_results_Ur/RSU_revenue_results.xlsx
+++ b/NSGA-II_results_Ur/RSU_revenue_results.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583842F6-CEBC-43CF-9F58-CCB142AEAF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE871BD-94C7-417D-B9AF-9468FC3FBF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{DAA28497-BB50-4112-B371-F28F481DD3DA}"/>
+    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{DAA28497-BB50-4112-B371-F28F481DD3DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -398,65 +407,65 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>1003.8686</v>
+        <v>933.51420000000007</v>
       </c>
       <c r="B1">
-        <v>1238.3722</v>
+        <v>1185.9234000000001</v>
       </c>
       <c r="C1">
-        <v>792.18540000000007</v>
+        <v>492.24740000000003</v>
       </c>
       <c r="D1">
-        <v>163.75639999999999</v>
+        <v>185.1062</v>
       </c>
       <c r="E1">
-        <v>465.01199999999994</v>
+        <v>538.28699999999992</v>
       </c>
       <c r="F1">
-        <v>885.75639999999999</v>
+        <v>955.16639999999995</v>
       </c>
       <c r="G1">
-        <v>34.173999999999999</v>
+        <v>138.04319999999998</v>
       </c>
       <c r="H1">
-        <v>155.35139999999996</v>
+        <v>143.88039999999998</v>
       </c>
       <c r="I1">
-        <v>205.77939999999998</v>
+        <v>269.75200000000001</v>
       </c>
       <c r="J1">
-        <v>365.59440000000006</v>
+        <v>220.78700000000001</v>
       </c>
       <c r="K1">
-        <v>400.9812</v>
+        <v>160.0926</v>
       </c>
       <c r="L1">
-        <v>1499.5200000000002</v>
+        <v>1246.2113999999999</v>
       </c>
       <c r="M1">
-        <v>502.85780000000005</v>
+        <v>444.62639999999999</v>
       </c>
       <c r="N1">
-        <v>1004.3373999999999</v>
+        <v>1055.9659999999999</v>
       </c>
       <c r="O1">
-        <v>681.17760000000021</v>
+        <v>547.10379999999998</v>
       </c>
       <c r="P1">
-        <v>1324.8832</v>
+        <v>2055.4047999999998</v>
       </c>
       <c r="Q1">
-        <v>0.51219253197081771</v>
+        <v>0.3380452059540176</v>
       </c>
       <c r="R1">
-        <v>0</v>
+        <v>0.58559262765200504</v>
       </c>
       <c r="S1">
-        <v>0.25879042961407767</v>
+        <v>0.91273818815498053</v>
       </c>
       <c r="T1">
         <v>0</v>
@@ -465,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="V1">
-        <v>0.62379340414588025</v>
+        <v>0.26349859040267748</v>
       </c>
       <c r="W1">
         <v>0</v>
@@ -480,22 +489,1048 @@
         <v>0</v>
       </c>
       <c r="AA1">
-        <v>0.56374214052928173</v>
+        <v>0</v>
       </c>
       <c r="AB1">
-        <v>0.37680391058472046</v>
+        <v>0.47873900046171947</v>
       </c>
       <c r="AC1">
-        <v>0.92799594636893368</v>
+        <v>0</v>
       </c>
       <c r="AD1">
-        <v>0.24382344021043131</v>
+        <v>0.30867281711721778</v>
       </c>
       <c r="AE1">
-        <v>0.45783361050040394</v>
+        <v>4.0566342255345327E-2</v>
       </c>
       <c r="AF1">
-        <v>0.74489660673484281</v>
+        <v>0.59049876695821668</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428598E1-F501-40B7-A122-B32DD0B2ACD4}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>4176.3766000000005</v>
+      </c>
+      <c r="B1">
+        <v>1048.2161999999998</v>
+      </c>
+      <c r="C1">
+        <v>2024.7029999999997</v>
+      </c>
+      <c r="D1">
+        <v>386.29699999999985</v>
+      </c>
+      <c r="E1">
+        <v>2212.4616000000001</v>
+      </c>
+      <c r="F1">
+        <v>1054.691</v>
+      </c>
+      <c r="G1">
+        <v>1002.2379999999999</v>
+      </c>
+      <c r="H1">
+        <v>393.89920000000001</v>
+      </c>
+      <c r="I1">
+        <v>21.762999999999998</v>
+      </c>
+      <c r="J1">
+        <v>2647.4803999999995</v>
+      </c>
+      <c r="K1">
+        <v>1355.4359999999997</v>
+      </c>
+      <c r="L1">
+        <v>3540.3543999999997</v>
+      </c>
+      <c r="M1">
+        <v>158.52439999999999</v>
+      </c>
+      <c r="N1">
+        <v>3242.9496000000004</v>
+      </c>
+      <c r="O1">
+        <v>5130.8251999999993</v>
+      </c>
+      <c r="P1">
+        <v>524.98840000000007</v>
+      </c>
+      <c r="Q1">
+        <v>0.36587888170812938</v>
+      </c>
+      <c r="R1">
+        <v>0.21801323047668986</v>
+      </c>
+      <c r="S1">
+        <v>0.74574344978004181</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0.25015801404191595</v>
+      </c>
+      <c r="V1">
+        <v>0.21788846211828863</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0.42523487614865824</v>
+      </c>
+      <c r="AA1">
+        <v>0.39349700022723327</v>
+      </c>
+      <c r="AB1">
+        <v>0.40483969627447464</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0.65750112181823617</v>
+      </c>
+      <c r="AE1">
+        <v>0.53133577811226163</v>
+      </c>
+      <c r="AF1">
+        <v>0.43967828622499083</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A55D94-06C2-401A-9C9D-BAE532DFD347}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>485.20639999999997</v>
+      </c>
+      <c r="B1">
+        <v>1284.8720000000001</v>
+      </c>
+      <c r="C1">
+        <v>563.952</v>
+      </c>
+      <c r="D1">
+        <v>1853.1932000000002</v>
+      </c>
+      <c r="E1">
+        <v>1245.2413999999999</v>
+      </c>
+      <c r="F1">
+        <v>1475.6409999999998</v>
+      </c>
+      <c r="G1">
+        <v>2062.6035999999999</v>
+      </c>
+      <c r="H1">
+        <v>198.23580000000001</v>
+      </c>
+      <c r="I1">
+        <v>74.142200000000003</v>
+      </c>
+      <c r="J1">
+        <v>170.60140000000001</v>
+      </c>
+      <c r="K1">
+        <v>34.562199999999997</v>
+      </c>
+      <c r="L1">
+        <v>1061.614</v>
+      </c>
+      <c r="M1">
+        <v>698.67100000000005</v>
+      </c>
+      <c r="N1">
+        <v>1004.6818000000001</v>
+      </c>
+      <c r="O1">
+        <v>2082.2655999999997</v>
+      </c>
+      <c r="P1">
+        <v>69.98</v>
+      </c>
+      <c r="Q1">
+        <v>0.53956419371220166</v>
+      </c>
+      <c r="R1">
+        <v>0.63719965879869744</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0.69020056840268995</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0.24557734570942391</v>
+      </c>
+      <c r="W1">
+        <v>0.50889710461089077</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0.41353542813112859</v>
+      </c>
+      <c r="AC1">
+        <v>0.59245338650094259</v>
+      </c>
+      <c r="AD1">
+        <v>0.30726146328121001</v>
+      </c>
+      <c r="AE1">
+        <v>0.45224826266159318</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AC6E06-D620-49C9-95EB-F7F424E70CBF}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>150.92680000000001</v>
+      </c>
+      <c r="B1">
+        <v>295.33780000000002</v>
+      </c>
+      <c r="C1">
+        <v>229.89379999999997</v>
+      </c>
+      <c r="D1">
+        <v>528.8152</v>
+      </c>
+      <c r="E1">
+        <v>819.85799999999983</v>
+      </c>
+      <c r="F1">
+        <v>189.68679999999998</v>
+      </c>
+      <c r="G1">
+        <v>294.12919999999997</v>
+      </c>
+      <c r="H1">
+        <v>6989.2900000000009</v>
+      </c>
+      <c r="I1">
+        <v>393.28839999999991</v>
+      </c>
+      <c r="J1">
+        <v>484.71420000000001</v>
+      </c>
+      <c r="K1">
+        <v>388.78419999999994</v>
+      </c>
+      <c r="L1">
+        <v>170.1902</v>
+      </c>
+      <c r="M1">
+        <v>354.02419999999995</v>
+      </c>
+      <c r="N1">
+        <v>997.99499999999989</v>
+      </c>
+      <c r="O1">
+        <v>759.16099999999983</v>
+      </c>
+      <c r="P1">
+        <v>4673.0375999999997</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0.63004203166889883</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0.536085925752115</v>
+      </c>
+      <c r="Y1">
+        <v>0.71386544835799903</v>
+      </c>
+      <c r="Z1">
+        <v>0.31407167357589277</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0.73454776827539214</v>
+      </c>
+      <c r="AE1">
+        <v>0.29426564325617366</v>
+      </c>
+      <c r="AF1">
+        <v>0.5292989724713536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0EF5EA-C3DD-46DA-8598-FF47BE6A6D76}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2100.5754000000002</v>
+      </c>
+      <c r="B1">
+        <v>153.9992</v>
+      </c>
+      <c r="C1">
+        <v>1049.9286000000002</v>
+      </c>
+      <c r="D1">
+        <v>2590.6431999999995</v>
+      </c>
+      <c r="E1">
+        <v>2119.9582000000005</v>
+      </c>
+      <c r="F1">
+        <v>2650.0620000000004</v>
+      </c>
+      <c r="G1">
+        <v>893.29279999999994</v>
+      </c>
+      <c r="H1">
+        <v>4586.0796</v>
+      </c>
+      <c r="I1">
+        <v>314.92099999999999</v>
+      </c>
+      <c r="J1">
+        <v>1580.8940000000002</v>
+      </c>
+      <c r="K1">
+        <v>19.496199999999998</v>
+      </c>
+      <c r="L1">
+        <v>700.26959999999997</v>
+      </c>
+      <c r="M1">
+        <v>1232.0014000000001</v>
+      </c>
+      <c r="N1">
+        <v>321.94100000000003</v>
+      </c>
+      <c r="O1">
+        <v>102.74799999999999</v>
+      </c>
+      <c r="P1">
+        <v>449.76680000000005</v>
+      </c>
+      <c r="Q1">
+        <v>0.41805164432564529</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0.51347777363146396</v>
+      </c>
+      <c r="T1">
+        <v>0.42706459924701334</v>
+      </c>
+      <c r="U1">
+        <v>0.71073571167582439</v>
+      </c>
+      <c r="V1">
+        <v>0.68148896139033732</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0.53554739869757184</v>
+      </c>
+      <c r="Y1">
+        <v>0.63968423826928034</v>
+      </c>
+      <c r="Z1">
+        <v>0.37001532044526703</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0.43678177661860523</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45790E6F-40DE-43FD-B503-21DC7A26B0E6}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1381.7154</v>
+      </c>
+      <c r="B1">
+        <v>1433.56</v>
+      </c>
+      <c r="C1">
+        <v>1180.9570000000001</v>
+      </c>
+      <c r="D1">
+        <v>947.54819999999995</v>
+      </c>
+      <c r="E1">
+        <v>2517.2306000000003</v>
+      </c>
+      <c r="F1">
+        <v>1337.3609999999999</v>
+      </c>
+      <c r="G1">
+        <v>83.910199999999989</v>
+      </c>
+      <c r="H1">
+        <v>715.6028</v>
+      </c>
+      <c r="I1">
+        <v>2626.9398000000001</v>
+      </c>
+      <c r="J1">
+        <v>1178.5340000000001</v>
+      </c>
+      <c r="K1">
+        <v>91.078199999999981</v>
+      </c>
+      <c r="L1">
+        <v>811.68139999999994</v>
+      </c>
+      <c r="M1">
+        <v>1923.0894000000001</v>
+      </c>
+      <c r="N1">
+        <v>1831.4193999999998</v>
+      </c>
+      <c r="O1">
+        <v>503.88980000000004</v>
+      </c>
+      <c r="P1">
+        <v>1311.4639999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.44009497180099461</v>
+      </c>
+      <c r="R1">
+        <v>0.29250258098719267</v>
+      </c>
+      <c r="S1">
+        <v>0.18692043825473745</v>
+      </c>
+      <c r="T1">
+        <v>0.15254105279288166</v>
+      </c>
+      <c r="U1">
+        <v>0.45298670689924081</v>
+      </c>
+      <c r="V1">
+        <v>0.56756178772971544</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0.64086318232340156</v>
+      </c>
+      <c r="Z1">
+        <v>0.46917356648174774</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0.27722330461188344</v>
+      </c>
+      <c r="AC1">
+        <v>0.68010046750816677</v>
+      </c>
+      <c r="AD1">
+        <v>0.15885165353168151</v>
+      </c>
+      <c r="AE1">
+        <v>0.69998638591215778</v>
+      </c>
+      <c r="AF1">
+        <v>0.75787821854050141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8E413A-03EC-44F3-B828-893A2C133477}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>543.51900000000001</v>
+      </c>
+      <c r="B1">
+        <v>184.40959999999995</v>
+      </c>
+      <c r="C1">
+        <v>955.57899999999995</v>
+      </c>
+      <c r="D1">
+        <v>754.57979999999998</v>
+      </c>
+      <c r="E1">
+        <v>2830.1247999999991</v>
+      </c>
+      <c r="F1">
+        <v>577.9348</v>
+      </c>
+      <c r="G1">
+        <v>1105.6532000000002</v>
+      </c>
+      <c r="H1">
+        <v>743.00079999999991</v>
+      </c>
+      <c r="I1">
+        <v>1244.335</v>
+      </c>
+      <c r="J1">
+        <v>1088.0529999999999</v>
+      </c>
+      <c r="K1">
+        <v>2465.2226000000005</v>
+      </c>
+      <c r="L1">
+        <v>908.79500000000019</v>
+      </c>
+      <c r="M1">
+        <v>1369.2754</v>
+      </c>
+      <c r="N1">
+        <v>865.36500000000001</v>
+      </c>
+      <c r="O1">
+        <v>634.87480000000005</v>
+      </c>
+      <c r="P1">
+        <v>1074.5988</v>
+      </c>
+      <c r="Q1">
+        <v>0.13729970801388727</v>
+      </c>
+      <c r="R1">
+        <v>0.6151957381828278</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0.33191718092639111</v>
+      </c>
+      <c r="U1">
+        <v>0.41626503537935861</v>
+      </c>
+      <c r="V1">
+        <v>0.43379460797307928</v>
+      </c>
+      <c r="W1">
+        <v>0.73219523083730031</v>
+      </c>
+      <c r="X1">
+        <v>0.4810896569694138</v>
+      </c>
+      <c r="Y1">
+        <v>0.37375385245934578</v>
+      </c>
+      <c r="Z1">
+        <v>0.3573153146032409</v>
+      </c>
+      <c r="AA1">
+        <v>0.60909104110922885</v>
+      </c>
+      <c r="AB1">
+        <v>7.6111774382561503E-2</v>
+      </c>
+      <c r="AC1">
+        <v>0.23633667850893986</v>
+      </c>
+      <c r="AD1">
+        <v>0.42261357924112941</v>
+      </c>
+      <c r="AE1">
+        <v>0.287771699238968</v>
+      </c>
+      <c r="AF1">
+        <v>0.25854300228140958</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A17D78D-3871-4A58-8909-2B2DAC0C672F}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1388.6804000000002</v>
+      </c>
+      <c r="B1">
+        <v>407.33239999999995</v>
+      </c>
+      <c r="C1">
+        <v>1143.4246000000001</v>
+      </c>
+      <c r="D1">
+        <v>1019.1234000000001</v>
+      </c>
+      <c r="E1">
+        <v>2388.2161999999998</v>
+      </c>
+      <c r="F1">
+        <v>516.98739999999998</v>
+      </c>
+      <c r="G1">
+        <v>1891.0759999999998</v>
+      </c>
+      <c r="H1">
+        <v>2640.7654000000002</v>
+      </c>
+      <c r="I1">
+        <v>1113.3955999999998</v>
+      </c>
+      <c r="J1">
+        <v>1150.2950000000001</v>
+      </c>
+      <c r="K1">
+        <v>782.61199999999997</v>
+      </c>
+      <c r="L1">
+        <v>1139.6129999999998</v>
+      </c>
+      <c r="M1">
+        <v>2507.2273999999998</v>
+      </c>
+      <c r="N1">
+        <v>1405.6515999999999</v>
+      </c>
+      <c r="O1">
+        <v>644.10239999999999</v>
+      </c>
+      <c r="P1">
+        <v>459.39259999999996</v>
+      </c>
+      <c r="Q1">
+        <v>0.49091569233640803</v>
+      </c>
+      <c r="R1">
+        <v>0.65493930755324148</v>
+      </c>
+      <c r="S1">
+        <v>0.23064485406383597</v>
+      </c>
+      <c r="T1">
+        <v>0.36703602331179913</v>
+      </c>
+      <c r="U1">
+        <v>0.56500621677384155</v>
+      </c>
+      <c r="V1">
+        <v>0.79683760184484187</v>
+      </c>
+      <c r="W1">
+        <v>0.59238232625235587</v>
+      </c>
+      <c r="X1">
+        <v>0.46685707105977686</v>
+      </c>
+      <c r="Y1">
+        <v>0.39798612460836025</v>
+      </c>
+      <c r="Z1">
+        <v>0.39376333896956867</v>
+      </c>
+      <c r="AA1">
+        <v>0.56010513511165183</v>
+      </c>
+      <c r="AB1">
+        <v>0.41833060872418976</v>
+      </c>
+      <c r="AC1">
+        <v>0.45793971460267235</v>
+      </c>
+      <c r="AD1">
+        <v>0.35877026711313109</v>
+      </c>
+      <c r="AE1">
+        <v>0.25116813724028969</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246234BC-2354-4E6B-A526-987A37226171}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1113.694</v>
+      </c>
+      <c r="B1">
+        <v>782.93119999999999</v>
+      </c>
+      <c r="C1">
+        <v>249.22319999999999</v>
+      </c>
+      <c r="D1">
+        <v>1503.1272000000004</v>
+      </c>
+      <c r="E1">
+        <v>411.56759999999997</v>
+      </c>
+      <c r="F1">
+        <v>706.72519999999986</v>
+      </c>
+      <c r="G1">
+        <v>358.79080000000005</v>
+      </c>
+      <c r="H1">
+        <v>184.60439999999997</v>
+      </c>
+      <c r="I1">
+        <v>3253.8851999999997</v>
+      </c>
+      <c r="J1">
+        <v>1970.2630000000004</v>
+      </c>
+      <c r="K1">
+        <v>2498.5828000000001</v>
+      </c>
+      <c r="L1">
+        <v>538.07039999999995</v>
+      </c>
+      <c r="M1">
+        <v>1800.5819999999999</v>
+      </c>
+      <c r="N1">
+        <v>1248.0592000000001</v>
+      </c>
+      <c r="O1">
+        <v>3335.72</v>
+      </c>
+      <c r="P1">
+        <v>1405.9859999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.42585306197213957</v>
+      </c>
+      <c r="R1">
+        <v>0.2560569817628931</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0.49177873968350772</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0.21972189473362497</v>
+      </c>
+      <c r="W1">
+        <v>0.26868860628533392</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>0.43739066147754696</v>
+      </c>
+      <c r="Z1">
+        <v>0.41958865390051975</v>
+      </c>
+      <c r="AA1">
+        <v>0.57483106023142405</v>
+      </c>
+      <c r="AB1">
+        <v>0.31444770052394633</v>
+      </c>
+      <c r="AC1">
+        <v>0.39388375536354359</v>
+      </c>
+      <c r="AD1">
+        <v>0.37141988136460197</v>
+      </c>
+      <c r="AE1">
+        <v>0.76454888299977231</v>
+      </c>
+      <c r="AF1">
+        <v>0.39857082502955227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8000D17D-DD66-4440-B528-1269C9462487}">
+  <dimension ref="A1:AF1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>563.39459999999997</v>
+      </c>
+      <c r="B1">
+        <v>320.21419999999995</v>
+      </c>
+      <c r="C1">
+        <v>1760.5478000000003</v>
+      </c>
+      <c r="D1">
+        <v>2302.5036</v>
+      </c>
+      <c r="E1">
+        <v>1332.6540000000002</v>
+      </c>
+      <c r="F1">
+        <v>495.36719999999997</v>
+      </c>
+      <c r="G1">
+        <v>1296.0562000000002</v>
+      </c>
+      <c r="H1">
+        <v>2199.9571999999998</v>
+      </c>
+      <c r="I1">
+        <v>1142.6365999999998</v>
+      </c>
+      <c r="J1">
+        <v>2412.3379999999997</v>
+      </c>
+      <c r="K1">
+        <v>127.72959999999999</v>
+      </c>
+      <c r="L1">
+        <v>450.12360000000001</v>
+      </c>
+      <c r="M1">
+        <v>4413.1694000000007</v>
+      </c>
+      <c r="N1">
+        <v>1386.3978</v>
+      </c>
+      <c r="O1">
+        <v>2813.1231999999995</v>
+      </c>
+      <c r="P1">
+        <v>3467.8833999999997</v>
+      </c>
+      <c r="Q1">
+        <v>0.43225121433538771</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0.26387695920553811</v>
+      </c>
+      <c r="T1">
+        <v>0.26682651006495711</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0.42635039219391196</v>
+      </c>
+      <c r="W1">
+        <v>0.68317407840801958</v>
+      </c>
+      <c r="X1">
+        <v>0.41337395109323039</v>
+      </c>
+      <c r="Y1">
+        <v>0.54258195475271853</v>
+      </c>
+      <c r="Z1">
+        <v>0.51920128937155585</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0.39749748735680607</v>
+      </c>
+      <c r="AC1">
+        <v>0.50018519570084918</v>
+      </c>
+      <c r="AD1">
+        <v>0.58922770939192204</v>
+      </c>
+      <c r="AE1">
+        <v>0.64324733449285132</v>
+      </c>
+      <c r="AF1">
+        <v>0.48241962229756635</v>
       </c>
     </row>
   </sheetData>

--- a/NSGA-II_results_Ur/RSU_revenue_results.xlsx
+++ b/NSGA-II_results_Ur/RSU_revenue_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results_Ur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results_Ur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE871BD-94C7-417D-B9AF-9468FC3FBF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A91B3-6B3B-4B65-B7FD-8213D53F16AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="2880" windowWidth="28800" windowHeight="15345" xr2:uid="{DAA28497-BB50-4112-B371-F28F481DD3DA}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{DAA28497-BB50-4112-B371-F28F481DD3DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,77 +407,74 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>933.51420000000007</v>
+        <v>913.89639999999986</v>
       </c>
       <c r="B1">
-        <v>1185.9234000000001</v>
+        <v>1515.1971999999998</v>
       </c>
       <c r="C1">
-        <v>492.24740000000003</v>
+        <v>243.16799999999998</v>
       </c>
       <c r="D1">
-        <v>185.1062</v>
+        <v>399.95319999999998</v>
       </c>
       <c r="E1">
-        <v>538.28699999999992</v>
+        <v>598.20900000000006</v>
       </c>
       <c r="F1">
-        <v>955.16639999999995</v>
+        <v>1246.7440000000001</v>
       </c>
       <c r="G1">
-        <v>138.04319999999998</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>143.88039999999998</v>
+        <v>259.30399999999997</v>
       </c>
       <c r="I1">
-        <v>269.75200000000001</v>
+        <v>167.9392</v>
       </c>
       <c r="J1">
-        <v>220.78700000000001</v>
+        <v>197.01320000000001</v>
       </c>
       <c r="K1">
-        <v>160.0926</v>
+        <v>861.02380000000005</v>
       </c>
       <c r="L1">
-        <v>1246.2113999999999</v>
+        <v>1741.4852000000001</v>
       </c>
       <c r="M1">
-        <v>444.62639999999999</v>
+        <v>869.74980000000005</v>
       </c>
       <c r="N1">
-        <v>1055.9659999999999</v>
+        <v>494.59719999999999</v>
       </c>
       <c r="O1">
-        <v>547.10379999999998</v>
+        <v>796.48039999999992</v>
       </c>
       <c r="P1">
-        <v>2055.4047999999998</v>
+        <v>863.40819999999985</v>
       </c>
       <c r="Q1">
-        <v>0.3380452059540176</v>
+        <v>0.34530172128919651</v>
       </c>
       <c r="R1">
-        <v>0.58559262765200504</v>
+        <v>0.35051477127861641</v>
       </c>
       <c r="S1">
-        <v>0.91273818815498053</v>
+        <v>0.84307968153704438</v>
       </c>
       <c r="T1">
-        <v>0</v>
+        <v>0.91342187035883204</v>
       </c>
       <c r="U1">
         <v>0</v>
       </c>
       <c r="V1">
-        <v>0.26349859040267748</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
+        <v>0.4431775889837849</v>
       </c>
       <c r="X1">
         <v>0</v>
@@ -489,22 +486,22 @@
         <v>0</v>
       </c>
       <c r="AA1">
-        <v>0</v>
+        <v>0.58990819998239308</v>
       </c>
       <c r="AB1">
-        <v>0.47873900046171947</v>
+        <v>0.34258689077575855</v>
       </c>
       <c r="AC1">
-        <v>0</v>
+        <v>0.53653361001060307</v>
       </c>
       <c r="AD1">
-        <v>0.30867281711721778</v>
+        <v>0</v>
       </c>
       <c r="AE1">
-        <v>4.0566342255345327E-2</v>
+        <v>0.25210915422400859</v>
       </c>
       <c r="AF1">
-        <v>0.59049876695821668</v>
+        <v>0.33236306998242549</v>
       </c>
     </row>
   </sheetData>
@@ -521,9 +518,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>4176.3766000000005</v>
       </c>
@@ -635,9 +632,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>485.20639999999997</v>
       </c>
@@ -749,9 +746,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>150.92680000000001</v>
       </c>
@@ -863,9 +860,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>2100.5754000000002</v>
       </c>
@@ -977,9 +974,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1381.7154</v>
       </c>
@@ -1091,9 +1088,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>543.51900000000001</v>
       </c>
@@ -1205,9 +1202,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1388.6804000000002</v>
       </c>
@@ -1319,9 +1316,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1113.694</v>
       </c>
@@ -1433,9 +1430,9 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>563.39459999999997</v>
       </c>
